--- a/valuation_cash_flow.xlsx
+++ b/valuation_cash_flow.xlsx
@@ -14,39 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Cash Flow Ratios</t>
   </si>
   <si>
-    <t>2014-12</t>
-  </si>
-  <si>
-    <t>2015-12</t>
-  </si>
-  <si>
-    <t>2016-12</t>
-  </si>
-  <si>
-    <t>2017-12</t>
-  </si>
-  <si>
-    <t>2018-12</t>
-  </si>
-  <si>
-    <t>2019-12</t>
-  </si>
-  <si>
-    <t>2020-12</t>
-  </si>
-  <si>
-    <t>2021-12</t>
-  </si>
-  <si>
-    <t>2022-12</t>
-  </si>
-  <si>
-    <t>2023-12</t>
+    <t>2015-09</t>
+  </si>
+  <si>
+    <t>2016-09</t>
+  </si>
+  <si>
+    <t>2017-09</t>
+  </si>
+  <si>
+    <t>2018-09</t>
+  </si>
+  <si>
+    <t>2019-09</t>
+  </si>
+  <si>
+    <t>2020-09</t>
+  </si>
+  <si>
+    <t>2021-09</t>
+  </si>
+  <si>
+    <t>2022-09</t>
+  </si>
+  <si>
+    <t>2023-09</t>
+  </si>
+  <si>
+    <t>2024-09</t>
   </si>
   <si>
     <t>TTM</t>
@@ -58,9 +58,6 @@
     <t>Free Cash Flow Growth % YOY</t>
   </si>
   <si>
-    <t>Cap Ex as a % of Sales</t>
-  </si>
-  <si>
     <t>Free Cash Flow/Sales %</t>
   </si>
   <si>
@@ -73,40 +70,13 @@
     <t>-</t>
   </si>
   <si>
-    <t>-33.48</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>-0.26</t>
-  </si>
-  <si>
-    <t>-7.29</t>
-  </si>
-  <si>
-    <t>-6.82</t>
-  </si>
-  <si>
-    <t>-0.29</t>
-  </si>
-  <si>
-    <t>9.28</t>
-  </si>
-  <si>
-    <t>-0.99</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>10.75</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>0.20</t>
+    <t>24.60</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>6.42</t>
   </si>
 </sst>
 </file>
@@ -464,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,37 +483,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>-36.23</v>
+        <v>36.09</v>
       </c>
       <c r="C2">
-        <v>-15.91</v>
+        <v>-19</v>
       </c>
       <c r="D2">
-        <v>28.98</v>
+        <v>-3.38</v>
       </c>
       <c r="E2">
-        <v>28.28</v>
+        <v>21.76</v>
       </c>
       <c r="F2">
-        <v>22.98</v>
+        <v>-10.39</v>
       </c>
       <c r="G2">
-        <v>3.19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
+        <v>16.26</v>
+      </c>
+      <c r="H2">
+        <v>28.96</v>
+      </c>
+      <c r="I2">
+        <v>17.41</v>
+      </c>
+      <c r="J2">
+        <v>-9.5</v>
       </c>
       <c r="K2">
-        <v>34.32</v>
+        <v>6.98</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -551,37 +521,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>-79.72</v>
+        <v>39.84</v>
       </c>
       <c r="C3">
-        <v>13.07</v>
+        <v>-25.08</v>
       </c>
       <c r="D3">
-        <v>-2.01</v>
+        <v>-2.82</v>
       </c>
       <c r="E3">
-        <v>-67.18000000000001</v>
+        <v>26.22</v>
       </c>
       <c r="F3">
-        <v>901.5599999999999</v>
+        <v>-8.15</v>
       </c>
       <c r="G3">
-        <v>41.97</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
+        <v>24.57</v>
+      </c>
+      <c r="H3">
+        <v>26.7</v>
+      </c>
+      <c r="I3">
+        <v>19.89</v>
+      </c>
+      <c r="J3">
+        <v>-10.64</v>
       </c>
       <c r="K3">
-        <v>41.31</v>
+        <v>9.26</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -589,37 +559,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1.28</v>
+        <v>29.86</v>
       </c>
       <c r="C4">
-        <v>1.45</v>
+        <v>24.24</v>
       </c>
       <c r="D4">
-        <v>1.3</v>
+        <v>22.16</v>
       </c>
       <c r="E4">
-        <v>0.39</v>
+        <v>24.14</v>
       </c>
       <c r="F4">
-        <v>4.08</v>
+        <v>22.64</v>
       </c>
       <c r="G4">
-        <v>5.49</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
+        <v>26.73</v>
+      </c>
+      <c r="H4">
+        <v>25.41</v>
+      </c>
+      <c r="I4">
+        <v>28.26</v>
+      </c>
+      <c r="J4">
+        <v>25.98</v>
       </c>
       <c r="K4">
-        <v>10.75</v>
+        <v>27.83</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -627,37 +597,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>2.55</v>
+        <v>1.31</v>
       </c>
       <c r="C5">
-        <v>2.4</v>
+        <v>1.14</v>
       </c>
       <c r="D5">
-        <v>-0.05</v>
+        <v>1.05</v>
       </c>
       <c r="E5">
-        <v>0.02</v>
+        <v>1.08</v>
       </c>
       <c r="F5">
-        <v>-0.27</v>
+        <v>1.07</v>
       </c>
       <c r="G5">
-        <v>-0.6899999999999999</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
+        <v>1.28</v>
+      </c>
+      <c r="H5">
+        <v>0.98</v>
+      </c>
+      <c r="I5">
+        <v>1.12</v>
+      </c>
+      <c r="J5">
+        <v>1.03</v>
       </c>
       <c r="K5">
-        <v>0.73</v>
+        <v>1.16</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -665,42 +635,37 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>0.12</v>
+        <v>2.96</v>
       </c>
       <c r="C6">
-        <v>-0.01</v>
+        <v>2.24</v>
       </c>
       <c r="D6">
-        <v>0.08</v>
+        <v>2.41</v>
       </c>
       <c r="E6">
-        <v>-0.01</v>
+        <v>2.88</v>
       </c>
       <c r="F6">
-        <v>0.1</v>
+        <v>3.08</v>
       </c>
       <c r="G6">
-        <v>0.06</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" t="s">
-        <v>27</v>
+        <v>4.04</v>
+      </c>
+      <c r="H6">
+        <v>5.57</v>
+      </c>
+      <c r="I6">
+        <v>6.54</v>
+      </c>
+      <c r="J6">
+        <v>6.34</v>
       </c>
       <c r="K6">
-        <v>0.2</v>
+        <v>6.72</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
